--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationquantity.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationquantity.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはQuantity DataTypeに対して、薬剤量に関する定義を行なったものである</t>
+    <t>このデータタイプはQuantity DataTypeに対して、JP Coreにおける薬剤量に関する定義を行なったものである</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -434,7 +434,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationUnitMERIT9_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t xml:space="preserve">qty-3
@@ -799,7 +799,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="54.0859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.140625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.89453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationquantity.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationquantity.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -254,10 +257,6 @@
   <si>
     <t xml:space="preserve">ele-1
 </t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>
@@ -708,55 +707,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -816,214 +815,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>81</v>
@@ -1038,23 +1037,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>85</v>
@@ -1068,68 +1067,68 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>89</v>
@@ -1145,19 +1144,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>92</v>
@@ -1173,38 +1172,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>96</v>
@@ -1213,7 +1212,7 @@
         <v>97</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>98</v>
@@ -1222,19 +1221,19 @@
         <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>89</v>
@@ -1246,7 +1245,7 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1256,10 +1255,10 @@
         <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>102</v>
@@ -1280,62 +1279,62 @@
         <v>107</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>108</v>
@@ -1353,17 +1352,17 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>102</v>
@@ -1387,28 +1386,28 @@
         <v>116</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>117</v>
       </c>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>118</v>
@@ -1420,31 +1419,31 @@
         <v>120</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>108</v>
@@ -1462,20 +1461,20 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>102</v>
@@ -1496,62 +1495,62 @@
         <v>126</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>108</v>
@@ -1569,20 +1568,20 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>84</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>102</v>
@@ -1603,26 +1602,26 @@
         <v>134</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
         <v>135</v>
@@ -1632,25 +1631,25 @@
         <v>136</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>84</v>
@@ -1674,7 +1673,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1684,10 +1683,10 @@
         <v>84</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>102</v>
@@ -1708,26 +1707,26 @@
         <v>143</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
         <v>135</v>
@@ -1737,31 +1736,31 @@
         <v>136</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>108</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationquantity.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationquantity.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
